--- a/Test_data/接口测试用例.xlsx
+++ b/Test_data/接口测试用例.xlsx
@@ -2054,7 +2054,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="n">
-        <v>18685258045</v>
+        <v>18685258046</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>

--- a/Test_data/接口测试用例.xlsx
+++ b/Test_data/接口测试用例.xlsx
@@ -2054,7 +2054,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="n">
-        <v>18685258046</v>
+        <v>18685258049</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>

--- a/Test_data/接口测试用例.xlsx
+++ b/Test_data/接口测试用例.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8370" windowWidth="20385" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8370" windowWidth="20385" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="recharge" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="mobile" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="bidLoan" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -256,6 +258,186 @@
   </si>
   <si>
     <t>$pwd</t>
+  </si>
+  <si>
+    <t>withdraw</t>
+  </si>
+  <si>
+    <t>member/withdraw</t>
+  </si>
+  <si>
+    <t>输入提现金额为负数</t>
+  </si>
+  <si>
+    <t>提现金额超过余额</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>20119</t>
+  </si>
+  <si>
+    <t>余额不足，请修改提现额度</t>
+  </si>
+  <si>
+    <t>正常提现</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>20102</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>服务器异常</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>loanId</t>
+  </si>
+  <si>
+    <t>bidLoan</t>
+  </si>
+  <si>
+    <t>用户ID带小数进行投资</t>
+  </si>
+  <si>
+    <t>member/bidLoan</t>
+  </si>
+  <si>
+    <t>2200.01</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>11004</t>
+  </si>
+  <si>
+    <t>11013</t>
+  </si>
+  <si>
+    <t>请根据数值参数的类型对应输入合法的数字</t>
+  </si>
+  <si>
+    <t>用户ID为负数进行投资</t>
+  </si>
+  <si>
+    <t>-2200</t>
+  </si>
+  <si>
+    <t>参数错误，memberId必须是大于0的正整数</t>
+  </si>
+  <si>
+    <t>标id带小数进行投资</t>
+  </si>
+  <si>
+    <t>108.1</t>
+  </si>
+  <si>
+    <t>11005</t>
+  </si>
+  <si>
+    <t>11009</t>
+  </si>
+  <si>
+    <t>不存在该标的</t>
+  </si>
+  <si>
+    <t>标id为负数进行投资</t>
+  </si>
+  <si>
+    <t>-108</t>
+  </si>
+  <si>
+    <t>用户id与密码不对应进行投资</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>投资金额为负数进行投资</t>
+  </si>
+  <si>
+    <t>-200</t>
+  </si>
+  <si>
+    <t>11007</t>
+  </si>
+  <si>
+    <t>参数错误，投资金额必须是能被100整除的正整数</t>
+  </si>
+  <si>
+    <t>投资金额不是一百的整倍数进行投资</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>未注册用户进行投标</t>
+  </si>
+  <si>
+    <t>3221</t>
+  </si>
+  <si>
+    <t>11008</t>
+  </si>
+  <si>
+    <t>不存在该用户</t>
+  </si>
+  <si>
+    <t>对不在竞标中状态下进行投资</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>11010</t>
+  </si>
+  <si>
+    <t>该标不在竞标中状态，无法完成投标</t>
+  </si>
+  <si>
+    <t>不存在标进行投资</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>满标进行投资</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>11011</t>
+  </si>
+  <si>
+    <t>输入不是数字字符的投资金额进行投资</t>
+  </si>
+  <si>
+    <t>两百</t>
+  </si>
+  <si>
+    <t>正常投资</t>
+  </si>
+  <si>
+    <t>竞标成功</t>
   </si>
 </sst>
 </file>
@@ -263,7 +445,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -289,6 +471,29 @@
       <charset val="134"/>
       <sz val="9"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
@@ -356,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -369,9 +574,6 @@
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -389,6 +591,29 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="6" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -405,7 +630,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -711,16 +936,16 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -731,40 +956,40 @@
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -775,32 +1000,32 @@
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G3" s="7" t="n"/>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="7" t="n"/>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="6" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="5" t="n"/>
+      <c r="N3" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="40.5" r="4" spans="1:14">
       <c r="A4" s="4" t="n">
@@ -809,36 +1034,36 @@
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n">
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G4" s="7" t="n"/>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="L4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -849,32 +1074,32 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="9" t="n"/>
-      <c r="L5" s="6" t="n"/>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="6" t="n"/>
+      <c r="K5" s="8" t="n"/>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="5" t="n"/>
+      <c r="N5" s="5" t="n"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4" t="n">
@@ -883,38 +1108,38 @@
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G6" s="7" t="n"/>
-      <c r="H6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="L6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -925,32 +1150,32 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="9" t="n"/>
-      <c r="L7" s="6" t="n"/>
-      <c r="M7" s="6" t="n"/>
-      <c r="N7" s="6" t="n"/>
+      <c r="K7" s="8" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="5" t="n"/>
+      <c r="N7" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="40.5" r="8" spans="1:14">
       <c r="A8" s="4" t="n">
@@ -959,36 +1184,36 @@
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="L8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -999,32 +1224,32 @@
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="6" t="n"/>
-      <c r="M9" s="6" t="n"/>
-      <c r="N9" s="6" t="n"/>
+      <c r="K9" s="8" t="n"/>
+      <c r="L9" s="5" t="n"/>
+      <c r="M9" s="5" t="n"/>
+      <c r="N9" s="5" t="n"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="n">
@@ -1033,32 +1258,32 @@
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="6" t="n"/>
-      <c r="M10" s="6" t="n"/>
-      <c r="N10" s="6" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="5" t="n"/>
+      <c r="N10" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="11" spans="1:14">
       <c r="A11" s="4" t="n">
@@ -1067,32 +1292,32 @@
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="6" t="n"/>
-      <c r="M11" s="6" t="n"/>
-      <c r="N11" s="6" t="n"/>
+      <c r="K11" s="8" t="n"/>
+      <c r="L11" s="5" t="n"/>
+      <c r="M11" s="5" t="n"/>
+      <c r="N11" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="12" spans="1:14">
       <c r="A12" s="4" t="n">
@@ -1101,32 +1326,32 @@
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="9" t="n"/>
-      <c r="L12" s="6" t="n"/>
-      <c r="M12" s="6" t="n"/>
-      <c r="N12" s="6" t="n"/>
+      <c r="K12" s="8" t="n"/>
+      <c r="L12" s="5" t="n"/>
+      <c r="M12" s="5" t="n"/>
+      <c r="N12" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="13" spans="1:14">
       <c r="A13" s="4" t="n">
@@ -1135,32 +1360,32 @@
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="6" t="n"/>
-      <c r="M13" s="6" t="n"/>
-      <c r="N13" s="6" t="n"/>
+      <c r="K13" s="8" t="n"/>
+      <c r="L13" s="5" t="n"/>
+      <c r="M13" s="5" t="n"/>
+      <c r="N13" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="54" r="14" spans="1:14">
       <c r="A14" s="4" t="n">
@@ -1169,32 +1394,32 @@
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="10" t="n"/>
-      <c r="L14" s="6" t="n"/>
-      <c r="M14" s="6" t="n"/>
-      <c r="N14" s="6" t="n"/>
+      <c r="K14" s="9" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="5" t="n"/>
+      <c r="N14" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="40.5" r="15" spans="1:14">
       <c r="A15" s="4" t="n">
@@ -1203,32 +1428,32 @@
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="7" t="n">
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="10" t="n"/>
-      <c r="L15" s="6" t="n"/>
-      <c r="M15" s="6" t="n"/>
-      <c r="N15" s="6" t="n"/>
+      <c r="K15" s="9" t="n"/>
+      <c r="L15" s="5" t="n"/>
+      <c r="M15" s="5" t="n"/>
+      <c r="N15" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="16" spans="1:14">
       <c r="A16" s="4" t="n">
@@ -1237,34 +1462,34 @@
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="I16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="7" t="n"/>
-      <c r="L16" s="6" t="n"/>
-      <c r="M16" s="6" t="n"/>
-      <c r="N16" s="6" t="n"/>
+      <c r="K16" s="6" t="n"/>
+      <c r="L16" s="5" t="n"/>
+      <c r="M16" s="5" t="n"/>
+      <c r="N16" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="17" spans="1:14">
       <c r="A17" s="4" t="n">
@@ -1273,32 +1498,32 @@
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7" t="n">
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="I17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="7" t="n"/>
-      <c r="L17" s="6" t="n"/>
-      <c r="M17" s="6" t="n"/>
-      <c r="N17" s="6" t="n"/>
+      <c r="K17" s="6" t="n"/>
+      <c r="L17" s="5" t="n"/>
+      <c r="M17" s="5" t="n"/>
+      <c r="N17" s="5" t="n"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="4" t="n">
@@ -1307,30 +1532,30 @@
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n">
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G18" s="7" t="n"/>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="I18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="6" t="n"/>
-      <c r="M18" s="6" t="n"/>
-      <c r="N18" s="6" t="n"/>
+      <c r="K18" s="8" t="n"/>
+      <c r="L18" s="5" t="n"/>
+      <c r="M18" s="5" t="n"/>
+      <c r="N18" s="5" t="n"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="4" t="n">
@@ -1339,32 +1564,32 @@
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="I19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="9" t="n"/>
-      <c r="L19" s="6" t="n"/>
-      <c r="M19" s="6" t="n"/>
-      <c r="N19" s="6" t="n"/>
+      <c r="K19" s="8" t="n"/>
+      <c r="L19" s="5" t="n"/>
+      <c r="M19" s="5" t="n"/>
+      <c r="N19" s="5" t="n"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="4" t="n">
@@ -1373,32 +1598,32 @@
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="I20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="6" t="n"/>
-      <c r="M20" s="6" t="n"/>
-      <c r="N20" s="6" t="n"/>
+      <c r="K20" s="8" t="n"/>
+      <c r="L20" s="5" t="n"/>
+      <c r="M20" s="5" t="n"/>
+      <c r="N20" s="5" t="n"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="4" t="n">
@@ -1407,32 +1632,32 @@
       <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G21" s="7" t="n"/>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="6" t="n"/>
+      <c r="H21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="I21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="9" t="n"/>
-      <c r="L21" s="6" t="n"/>
-      <c r="M21" s="6" t="n"/>
-      <c r="N21" s="6" t="n"/>
+      <c r="K21" s="8" t="n"/>
+      <c r="L21" s="5" t="n"/>
+      <c r="M21" s="5" t="n"/>
+      <c r="N21" s="5" t="n"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="4" t="n">
@@ -1441,30 +1666,30 @@
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-      <c r="H22" s="7" t="s">
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
+      <c r="H22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="I22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="6" t="n"/>
-      <c r="M22" s="6" t="n"/>
-      <c r="N22" s="6" t="n"/>
+      <c r="K22" s="8" t="n"/>
+      <c r="L22" s="5" t="n"/>
+      <c r="M22" s="5" t="n"/>
+      <c r="N22" s="5" t="n"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="4" t="n">
@@ -1473,32 +1698,32 @@
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="7" t="n"/>
-      <c r="H23" s="7" t="s">
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="I23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="6" t="n"/>
-      <c r="M23" s="6" t="n"/>
-      <c r="N23" s="6" t="n"/>
+      <c r="K23" s="8" t="n"/>
+      <c r="L23" s="5" t="n"/>
+      <c r="M23" s="5" t="n"/>
+      <c r="N23" s="5" t="n"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="4" t="n">
@@ -1507,32 +1732,32 @@
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="7" t="n"/>
-      <c r="H24" s="7" t="s">
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="I24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="9" t="n"/>
-      <c r="L24" s="6" t="n"/>
-      <c r="M24" s="6" t="n"/>
-      <c r="N24" s="6" t="n"/>
+      <c r="K24" s="8" t="n"/>
+      <c r="L24" s="5" t="n"/>
+      <c r="M24" s="5" t="n"/>
+      <c r="N24" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="25" spans="1:14">
       <c r="A25" s="4" t="n">
@@ -1541,32 +1766,32 @@
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="7" t="n"/>
-      <c r="H25" s="7" t="s">
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="I25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="9" t="n"/>
-      <c r="L25" s="6" t="n"/>
-      <c r="M25" s="6" t="n"/>
-      <c r="N25" s="6" t="n"/>
+      <c r="K25" s="8" t="n"/>
+      <c r="L25" s="5" t="n"/>
+      <c r="M25" s="5" t="n"/>
+      <c r="N25" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="26" spans="1:14">
       <c r="A26" s="4" t="n">
@@ -1575,32 +1800,32 @@
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="7" t="n"/>
-      <c r="H26" s="7" t="s">
+      <c r="G26" s="6" t="n"/>
+      <c r="H26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="9" t="n"/>
-      <c r="L26" s="6" t="n"/>
-      <c r="M26" s="6" t="n"/>
-      <c r="N26" s="6" t="n"/>
+      <c r="K26" s="8" t="n"/>
+      <c r="L26" s="5" t="n"/>
+      <c r="M26" s="5" t="n"/>
+      <c r="N26" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="27" spans="1:14">
       <c r="A27" s="4" t="n">
@@ -1609,32 +1834,32 @@
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="7" t="n"/>
-      <c r="H27" s="7" t="s">
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="I27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="9" t="n"/>
-      <c r="L27" s="6" t="n"/>
-      <c r="M27" s="6" t="n"/>
-      <c r="N27" s="6" t="n"/>
+      <c r="K27" s="8" t="n"/>
+      <c r="L27" s="5" t="n"/>
+      <c r="M27" s="5" t="n"/>
+      <c r="N27" s="5" t="n"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="4" t="n">
@@ -1643,32 +1868,32 @@
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="7" t="n"/>
-      <c r="H28" s="7" t="s">
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="I28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="10" t="n"/>
-      <c r="L28" s="6" t="n"/>
-      <c r="M28" s="6" t="n"/>
-      <c r="N28" s="6" t="n"/>
+      <c r="K28" s="9" t="n"/>
+      <c r="L28" s="5" t="n"/>
+      <c r="M28" s="5" t="n"/>
+      <c r="N28" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="40.5" r="29" spans="1:14">
       <c r="A29" s="4" t="n">
@@ -1677,32 +1902,32 @@
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="7" t="n">
+      <c r="E29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="6" t="n">
         <v>123456</v>
       </c>
-      <c r="G29" s="7" t="n"/>
-      <c r="H29" s="7" t="s">
+      <c r="G29" s="6" t="n"/>
+      <c r="H29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="I29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="10" t="n"/>
-      <c r="L29" s="6" t="n"/>
-      <c r="M29" s="6" t="n"/>
-      <c r="N29" s="6" t="n"/>
+      <c r="K29" s="9" t="n"/>
+      <c r="L29" s="5" t="n"/>
+      <c r="M29" s="5" t="n"/>
+      <c r="N29" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
@@ -1718,8 +1943,8 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -1764,16 +1989,16 @@
       <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1784,35 +2009,35 @@
       <c r="B2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="n"/>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1823,37 +2048,37 @@
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="K3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1864,37 +2089,37 @@
       <c r="B4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="K4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1905,37 +2130,37 @@
       <c r="B5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="K5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1946,37 +2171,37 @@
       <c r="B6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="K6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1987,37 +2212,37 @@
       <c r="B7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2034,8 +2259,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -2048,13 +2273,13 @@
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="n">
-        <v>18685258049</v>
+        <v>18685258111</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -2063,4 +2288,1032 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="6.75"/>
+    <col customWidth="1" max="2" min="2" width="13.25"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="34.125"/>
+    <col customWidth="1" max="4" min="4" width="19.875"/>
+    <col customWidth="1" max="5" min="5" width="14"/>
+    <col customWidth="1" max="8" min="8" width="11.75"/>
+    <col customWidth="1" max="11" min="11" width="32.5"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="28.5" r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="2" spans="1:13">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="3" spans="1:13">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="4" spans="1:13">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="5" spans="1:13">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="6" spans="1:13">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="7" spans="1:13">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="8" spans="1:13">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="6" t="n"/>
+      <c r="L8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="34.125"/>
+    <col customWidth="1" max="4" min="4" width="16.75"/>
+    <col customWidth="1" max="5" min="5" width="14.375"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="28.5" r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="2" spans="1:15">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="6" t="n"/>
+      <c r="N2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="3" spans="1:15">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="4" spans="1:15">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="6" t="n"/>
+      <c r="N4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="5" spans="1:15">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="7" spans="1:15">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="8" spans="1:15">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="9" spans="1:15">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="10" spans="1:15">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="11" spans="1:15">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="12" spans="1:15">
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" s="6" t="n"/>
+      <c r="N12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="13" spans="1:15">
+      <c r="A13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>